--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1668.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1668.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6999704848446437</v>
+        <v>3.608580112457275</v>
       </c>
       <c r="B1">
-        <v>3.10561112231197</v>
+        <v>2.45148491859436</v>
       </c>
       <c r="C1">
-        <v>2.657033824343759</v>
+        <v>1.843499302864075</v>
       </c>
       <c r="D1">
-        <v>2.457724385979373</v>
+        <v>1.74121356010437</v>
       </c>
       <c r="E1">
-        <v>2.129602305185057</v>
+        <v>1.836049199104309</v>
       </c>
     </row>
   </sheetData>
